--- a/Evandro/q.xlsx
+++ b/Evandro/q.xlsx
@@ -385,1469 +385,1469 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>297.1499999999999</v>
+        <v>297.15</v>
       </c>
       <c r="C2">
-        <v>0.008333333333333331</v>
+        <v>0.004713804713333329</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0001907926758318284</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>11.51515151515152</v>
+        <v>189.6969696969697</v>
       </c>
       <c r="B3">
-        <v>297.1499999999999</v>
+        <v>297.15</v>
       </c>
       <c r="C3">
-        <v>0.001711170344916036</v>
+        <v>0.00527610561245791</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0002135519753130234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>23.03030303030303</v>
+        <v>199.3939393939394</v>
       </c>
       <c r="B4">
-        <v>297.1499999999999</v>
+        <v>297.1500000000001</v>
       </c>
       <c r="C4">
-        <v>0.001161918473977927</v>
+        <v>0.005600052148754208</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0002266638096475257</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>34.54545454545455</v>
+        <v>209.0909090909091</v>
       </c>
       <c r="B5">
-        <v>297.1499999999997</v>
+        <v>297.1500000000001</v>
       </c>
       <c r="C5">
-        <v>0.0009850185354835853</v>
+        <v>0.005636329626464645</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0002281321515636059</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>46.06060606060606</v>
+        <v>218.7878787878788</v>
       </c>
       <c r="B6">
-        <v>297.1499999999997</v>
+        <v>298.3217171717171</v>
       </c>
       <c r="C6">
-        <v>0.0010381593715</v>
+        <v>0.005672607104175082</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0002286986924194235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>57.57575757575758</v>
+        <v>228.4848484848485</v>
       </c>
       <c r="B7">
-        <v>297.1499999999998</v>
+        <v>299.6146464646464</v>
       </c>
       <c r="C7">
-        <v>0.0009259259260000003</v>
+        <v>0.005708884581498317</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0002291680505054913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>69.09090909090909</v>
+        <v>238.1818181818182</v>
       </c>
       <c r="B8">
-        <v>297.1500000000001</v>
+        <v>300.9075757575757</v>
       </c>
       <c r="C8">
-        <v>0.0008919157909494954</v>
+        <v>0.005745162058131312</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0002296333751206992</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>80.60606060606061</v>
+        <v>247.8787878787879</v>
       </c>
       <c r="B9">
-        <v>297.1500000000001</v>
+        <v>301.9378787878788</v>
       </c>
       <c r="C9">
-        <v>0.0008698092031666665</v>
+        <v>0.005781439535639728</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0002302948550134827</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>92.12121212121212</v>
+        <v>257.5757575757576</v>
       </c>
       <c r="B10">
-        <v>297.1499999999999</v>
+        <v>302.9075757575758</v>
       </c>
       <c r="C10">
-        <v>0.0008698092031666671</v>
+        <v>0.005817717013350172</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0002309980450105874</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>103.6363636363636</v>
+        <v>267.2727272727273</v>
       </c>
       <c r="B11">
-        <v>297.1499999999999</v>
+        <v>303.8772727272727</v>
       </c>
       <c r="C11">
-        <v>0.0008698092031666672</v>
+        <v>0.005853994491060608</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0002316967471353136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>115.1515151515152</v>
+        <v>276.969696969697</v>
       </c>
       <c r="B12">
-        <v>297.1499999999999</v>
+        <v>303.9176767676766</v>
       </c>
       <c r="C12">
-        <v>0.0008698092031666664</v>
+        <v>0.005890271967996633</v>
       </c>
       <c r="D12">
-        <v>0.02915137358338704</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1.026297176765498E-06</v>
+        <v>0.0002331015891006031</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>126.6666666666667</v>
+        <v>286.6666666666667</v>
       </c>
       <c r="B13">
-        <v>297.15</v>
+        <v>303.5944444444443</v>
       </c>
       <c r="C13">
-        <v>0.0009446315002037042</v>
+        <v>0.005926549444814816</v>
       </c>
       <c r="D13">
-        <v>0.736984673387429</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2.817805370598509E-05</v>
+        <v>0.0002347869419362333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>138.1818181818182</v>
+        <v>296.3636363636364</v>
       </c>
       <c r="B14">
-        <v>297.15</v>
+        <v>303.271212121212</v>
       </c>
       <c r="C14">
-        <v>0.001335748052970953</v>
+        <v>0.005962826922525252</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>5.406480767915976E-05</v>
+        <v>0.0002364758873705437</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>149.6969696969697</v>
+        <v>306.0606060606061</v>
       </c>
       <c r="B15">
-        <v>297.15</v>
+        <v>302.9479797979798</v>
       </c>
       <c r="C15">
-        <v>0.003561073700387222</v>
+        <v>0.005976430976666666</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.0001441355383708244</v>
+        <v>0.0002372682868635505</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>161.2121212121212</v>
+        <v>315.7575757575758</v>
       </c>
       <c r="B16">
-        <v>297.1499999999999</v>
+        <v>302.6247474747474</v>
       </c>
       <c r="C16">
-        <v>0.005100528290488224</v>
+        <v>0.005979265154612792</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.0002064454299401893</v>
+        <v>0.0002376343511351279</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>172.7272727272727</v>
+        <v>325.4545454545455</v>
       </c>
       <c r="B17">
-        <v>297.1499999999999</v>
+        <v>302.3015151515152</v>
       </c>
       <c r="C17">
-        <v>0.004173643746013075</v>
+        <v>0.006015542632323231</v>
       </c>
       <c r="D17">
-        <v>0.9999999999999999</v>
+        <v>0.9975149571129857</v>
       </c>
       <c r="E17">
-        <v>0.0001689294968071584</v>
+        <v>0.0002387370090981301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>184.2424242424242</v>
+        <v>335.1515151515151</v>
       </c>
       <c r="B18">
-        <v>297.15</v>
+        <v>301.9782828282827</v>
       </c>
       <c r="C18">
-        <v>0.004959811356700333</v>
+        <v>0.006032547700000001</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9949861484505514</v>
       </c>
       <c r="E18">
-        <v>0.0002007498693548512</v>
+        <v>0.0002390605616169201</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>195.7575757575758</v>
+        <v>344.8484848484849</v>
       </c>
       <c r="B19">
-        <v>297.15</v>
+        <v>301.6550505050504</v>
       </c>
       <c r="C19">
-        <v>0.005586448094612794</v>
+        <v>0.006032547700000001</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9817226665481807</v>
       </c>
       <c r="E19">
-        <v>0.0002261131814289957</v>
+        <v>0.0002361265540495645</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>207.2727272727273</v>
+        <v>354.5454545454546</v>
       </c>
       <c r="B20">
-        <v>297.1500000000001</v>
+        <v>301.3318181818181</v>
       </c>
       <c r="C20">
-        <v>0.005629527599393938</v>
+        <v>0.006139679625303028</v>
       </c>
       <c r="D20">
-        <v>0.9999999999999998</v>
+        <v>0.9498135019416507</v>
       </c>
       <c r="E20">
-        <v>0.0002278568374543409</v>
+        <v>0.0002327581538771149</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>218.7878787878788</v>
+        <v>364.2424242424242</v>
       </c>
       <c r="B21">
-        <v>298.3217171717171</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C21">
-        <v>0.005672607104175082</v>
+        <v>0.006248512057356903</v>
       </c>
       <c r="D21">
-        <v>0.9999999999999998</v>
+        <v>0.9051358879042344</v>
       </c>
       <c r="E21">
-        <v>0.0002286986924194235</v>
+        <v>0.0002258777102384643</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>230.3030303030303</v>
+        <v>373.9393939393939</v>
       </c>
       <c r="B22">
-        <v>299.8570707070706</v>
+        <v>301.15</v>
       </c>
       <c r="C22">
-        <v>0.005715686608367003</v>
+        <v>0.006357344489410775</v>
       </c>
       <c r="D22">
-        <v>0.9999999999999996</v>
+        <v>0.8590635544934555</v>
       </c>
       <c r="E22">
-        <v>0.000229255604532631</v>
+        <v>0.0002181142397745263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>241.8181818181818</v>
+        <v>383.6363636363636</v>
       </c>
       <c r="B23">
-        <v>301.3318181818182</v>
+        <v>301.15</v>
       </c>
       <c r="C23">
-        <v>0.005758766112070705</v>
+        <v>0.006450022107171719</v>
       </c>
       <c r="D23">
-        <v>0.9999999999999994</v>
+        <v>0.8148094029008599</v>
       </c>
       <c r="E23">
-        <v>0.0002298530630161153</v>
+        <v>0.0002098940922703342</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>253.3333333333333</v>
+        <v>393.3333333333334</v>
       </c>
       <c r="B24">
-        <v>302.4833333333333</v>
+        <v>301.0388888888888</v>
       </c>
       <c r="C24">
-        <v>0.005801845616851849</v>
+        <v>0.006559421374444445</v>
       </c>
       <c r="D24">
-        <v>0.9999999999999994</v>
+        <v>0.7773398645085388</v>
       </c>
       <c r="E24">
-        <v>0.0002306909541503247</v>
+        <v>0.0002037134556285069</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>264.8484848484849</v>
+        <v>403.030303030303</v>
       </c>
       <c r="B25">
-        <v>303.6348484848485</v>
+        <v>300.7156565656564</v>
       </c>
       <c r="C25">
-        <v>0.005844925121633</v>
+        <v>0.006704531283131313</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.7478370967801413</v>
       </c>
       <c r="E25">
-        <v>0.0002315224899907257</v>
+        <v>0.0002005327148959377</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>276.3636363636364</v>
+        <v>412.7272727272727</v>
       </c>
       <c r="B26">
-        <v>303.9378787878786</v>
+        <v>300.3924242424241</v>
       </c>
       <c r="C26">
-        <v>0.005888004625707071</v>
+        <v>0.006820732577626267</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.7259841680772678</v>
       </c>
       <c r="E26">
-        <v>0.0002329963735715204</v>
+        <v>0.0001982599734721782</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>287.8787878787879</v>
+        <v>422.4242424242424</v>
       </c>
       <c r="B27">
-        <v>303.5540404040403</v>
+        <v>300.15</v>
       </c>
       <c r="C27">
-        <v>0.00593108412952862</v>
+        <v>0.006938634379107747</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.7082825074402296</v>
       </c>
       <c r="E27">
-        <v>0.0002349978634118576</v>
+        <v>0.0001969282489386816</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>299.3939393939394</v>
+        <v>432.1212121212121</v>
       </c>
       <c r="B28">
-        <v>303.1702020202019</v>
+        <v>300.15</v>
       </c>
       <c r="C28">
-        <v>0.005974163634309764</v>
+        <v>0.007083744288872056</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.6921507056693255</v>
       </c>
       <c r="E28">
-        <v>0.0002370044213914188</v>
+        <v>0.0001964676457383038</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>310.9090909090909</v>
+        <v>441.8181818181818</v>
       </c>
       <c r="B29">
-        <v>302.7863636363636</v>
+        <v>300.1499999999999</v>
       </c>
       <c r="C29">
-        <v>0.005976430976666665</v>
+        <v>0.007203346597121213</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.6800506378129597</v>
       </c>
       <c r="E29">
-        <v>0.0002373949318991314</v>
+        <v>0.0001962922095494294</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>322.4242424242424</v>
+        <v>451.5151515151515</v>
       </c>
       <c r="B30">
-        <v>302.4025252525252</v>
+        <v>300.15</v>
       </c>
       <c r="C30">
-        <v>0.006004205920538718</v>
+        <v>0.007306510673282827</v>
       </c>
       <c r="D30">
-        <v>0.9983052098199963</v>
+        <v>0.6741500842672803</v>
       </c>
       <c r="E30">
-        <v>0.0002383962116266024</v>
+        <v>0.0001973758965405157</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>333.9393939393939</v>
+        <v>461.2121212121212</v>
       </c>
       <c r="B31">
-        <v>302.0186868686868</v>
+        <v>300.15</v>
       </c>
       <c r="C31">
-        <v>0.006032547700000001</v>
+        <v>0.007379065627626262</v>
       </c>
       <c r="D31">
-        <v>0.9953022495333558</v>
+        <v>0.6685916727294527</v>
       </c>
       <c r="E31">
-        <v>0.0002391045180449668</v>
+        <v>0.0001976923370795987</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>345.4545454545455</v>
+        <v>470.9090909090909</v>
       </c>
       <c r="B32">
-        <v>301.6348484848484</v>
+        <v>300.15</v>
       </c>
       <c r="C32">
-        <v>0.006037649220252524</v>
+        <v>0.007451620582626263</v>
       </c>
       <c r="D32">
-        <v>0.9802415800231058</v>
+        <v>0.6634133273221449</v>
       </c>
       <c r="E32">
-        <v>0.0002359855061934654</v>
+        <v>0.0001980899420679458</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>356.969696969697</v>
+        <v>480.6060606060606</v>
       </c>
       <c r="B33">
-        <v>301.25101010101</v>
+        <v>300.1904040404039</v>
       </c>
       <c r="C33">
-        <v>0.006166887733316496</v>
+        <v>0.007521908195622898</v>
       </c>
       <c r="D33">
-        <v>0.9383554382820534</v>
+        <v>0.6609547633447784</v>
       </c>
       <c r="E33">
-        <v>0.0002310312633795262</v>
+        <v>0.000199190585068428</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>368.4848484848485</v>
+        <v>490.3030303030303</v>
       </c>
       <c r="B34">
-        <v>301.15</v>
+        <v>300.8368686868686</v>
       </c>
       <c r="C34">
-        <v>0.006296126246380472</v>
+        <v>0.007558185672255895</v>
       </c>
       <c r="D34">
-        <v>0.8839565147642923</v>
+        <v>0.6584961993674119</v>
       </c>
       <c r="E34">
-        <v>0.0002222733056091821</v>
+        <v>0.0001989782545042969</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="B35">
-        <v>301.15</v>
+        <v>301.4833333333332</v>
       </c>
       <c r="C35">
-        <v>0.006416011972222224</v>
+        <v>0.007585110362222224</v>
       </c>
       <c r="D35">
-        <v>0.8314047097480837</v>
+        <v>0.6560376353900454</v>
       </c>
       <c r="E35">
-        <v>0.0002130397411535894</v>
+        <v>0.0001985149403176671</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>391.5151515151515</v>
+        <v>509.6969696969697</v>
       </c>
       <c r="B36">
-        <v>301.0994949494949</v>
+        <v>302.1297979797978</v>
       </c>
       <c r="C36">
-        <v>0.006532213266565657</v>
+        <v>0.007603249101077444</v>
       </c>
       <c r="D36">
-        <v>0.7833983592773299</v>
+        <v>0.6533950351029311</v>
       </c>
       <c r="E36">
-        <v>0.0002044084444014947</v>
+        <v>0.0001977640449557857</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>403.0303030303031</v>
+        <v>519.3939393939394</v>
       </c>
       <c r="B37">
-        <v>300.7156565656564</v>
+        <v>302.4631313131314</v>
       </c>
       <c r="C37">
-        <v>0.006704531283131315</v>
+        <v>0.007638959743198654</v>
       </c>
       <c r="D37">
-        <v>0.7478370967801411</v>
+        <v>0.6504682665115482</v>
       </c>
       <c r="E37">
-        <v>0.0002005327148959377</v>
+        <v>0.0001975848941678771</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>414.5454545454546</v>
+        <v>529.0909090909091</v>
       </c>
       <c r="B38">
-        <v>300.3318181818181</v>
+        <v>302.7863636363637</v>
       </c>
       <c r="C38">
-        <v>0.006841138658636368</v>
+        <v>0.007675237220909084</v>
       </c>
       <c r="D38">
-        <v>0.722665106707823</v>
+        <v>0.6475414979201652</v>
       </c>
       <c r="E38">
-        <v>0.0001979839481322138</v>
+        <v>0.0001974190000106352</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>426.0606060606061</v>
+        <v>538.7878787878788</v>
       </c>
       <c r="B39">
-        <v>300.15</v>
+        <v>303.109595959596</v>
       </c>
       <c r="C39">
-        <v>0.006993050595269362</v>
+        <v>0.007711514698619523</v>
       </c>
       <c r="D39">
-        <v>0.7016443847013399</v>
+        <v>0.6446079838177319</v>
       </c>
       <c r="E39">
-        <v>0.0001966125445361631</v>
+        <v>0.000197242969612646</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>437.5757575757576</v>
+        <v>548.4848484848485</v>
       </c>
       <c r="B40">
-        <v>300.15</v>
+        <v>303.4328282828283</v>
       </c>
       <c r="C40">
-        <v>0.007155732408097644</v>
+        <v>0.007768954036756451</v>
       </c>
       <c r="D40">
-        <v>0.6838530522457138</v>
+        <v>0.6416577070448921</v>
       </c>
       <c r="E40">
-        <v>0.0001960850037105213</v>
+        <v>0.0001975919508691465</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>449.0909090909091</v>
+        <v>558.1818181818182</v>
       </c>
       <c r="B41">
-        <v>300.1499999999999</v>
+        <v>303.7560606060606</v>
       </c>
       <c r="C41">
-        <v>0.007284970921161617</v>
+        <v>0.007796701988362193</v>
       </c>
       <c r="D41">
-        <v>0.6756252226537002</v>
+        <v>0.6387074302720523</v>
       </c>
       <c r="E41">
-        <v>0.0001972246420533213</v>
+        <v>0.0001971758848516083</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>460.6060606060606</v>
+        <v>567.8787878787879</v>
       </c>
       <c r="B42">
-        <v>300.15</v>
+        <v>304.0792929292929</v>
       </c>
       <c r="C42">
-        <v>0.007374530942979797</v>
+        <v>0.007822614472441078</v>
       </c>
       <c r="D42">
-        <v>0.6689322786810649</v>
+        <v>0.6361375671521966</v>
       </c>
       <c r="E42">
-        <v>0.0001976714985546339</v>
+        <v>0.0001968257754941515</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>472.1212121212121</v>
+        <v>577.5757575757575</v>
       </c>
       <c r="B43">
-        <v>300.15</v>
+        <v>304.1500000000001</v>
       </c>
       <c r="C43">
-        <v>0.007460689952053873</v>
+        <v>0.007856624607794609</v>
       </c>
       <c r="D43">
-        <v>0.6631060068249741</v>
+        <v>0.6350378382353746</v>
       </c>
       <c r="E43">
-        <v>0.0001982391622490028</v>
+        <v>0.0001972938885041721</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>483.6363636363636</v>
+        <v>587.2727272727273</v>
       </c>
       <c r="B44">
-        <v>300.3924242424241</v>
+        <v>304.15</v>
       </c>
       <c r="C44">
-        <v>0.007533244907070709</v>
+        <v>0.007884399551666664</v>
       </c>
       <c r="D44">
-        <v>0.6601864621018514</v>
+        <v>0.6339381093185525</v>
       </c>
       <c r="E44">
-        <v>0.0001991249008113032</v>
+        <v>0.0001976484947784995</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>495.1515151515152</v>
+        <v>596.969696969697</v>
       </c>
       <c r="B45">
-        <v>301.1601010101009</v>
+        <v>304.15</v>
       </c>
       <c r="C45">
-        <v>0.007576040992794614</v>
+        <v>0.007884399551666666</v>
       </c>
       <c r="D45">
-        <v>0.6572669173787287</v>
+        <v>0.6328383804017306</v>
       </c>
       <c r="E45">
-        <v>0.0001988623202142832</v>
+        <v>0.0001973056225613553</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>506.6666666666667</v>
+        <v>606.6666666666667</v>
       </c>
       <c r="B46">
-        <v>301.9277777777777</v>
+        <v>304.1499999999998</v>
       </c>
       <c r="C46">
-        <v>0.007597580745185187</v>
+        <v>0.007884399551666664</v>
       </c>
       <c r="D46">
-        <v>0.6543096502877382</v>
+        <v>0.6317386514849086</v>
       </c>
       <c r="E46">
-        <v>0.0001980256405120041</v>
+        <v>0.0001969627503442112</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>518.1818181818182</v>
+        <v>616.3636363636364</v>
       </c>
       <c r="B47">
-        <v>302.4227272727273</v>
+        <v>304.1499999999998</v>
       </c>
       <c r="C47">
-        <v>0.007634425058484849</v>
+        <v>0.007884399551666664</v>
       </c>
       <c r="D47">
-        <v>0.650834112585471</v>
+        <v>0.6306389225680866</v>
       </c>
       <c r="E47">
-        <v>0.0001976050620726968</v>
+        <v>0.000196619878127067</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>529.6969696969697</v>
+        <v>626.060606060606</v>
       </c>
       <c r="B48">
-        <v>302.8065656565657</v>
+        <v>304.1499999999998</v>
       </c>
       <c r="C48">
-        <v>0.007677504563265987</v>
+        <v>0.007884399551666664</v>
       </c>
       <c r="D48">
-        <v>0.6473585748832038</v>
+        <v>0.6295391936512647</v>
       </c>
       <c r="E48">
-        <v>0.0001974083633357077</v>
+        <v>0.0001962770059099229</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>541.2121212121212</v>
+        <v>635.7575757575758</v>
       </c>
       <c r="B49">
-        <v>303.190404040404</v>
+        <v>303.9580808080807</v>
       </c>
       <c r="C49">
-        <v>0.007723607190965204</v>
+        <v>0.007895169427542087</v>
       </c>
       <c r="D49">
-        <v>0.6438704146245219</v>
+        <v>0.6284394647344426</v>
       </c>
       <c r="E49">
-        <v>0.0001972736334816175</v>
+        <v>0.0001963256562423934</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>552.7272727272727</v>
+        <v>645.4545454545455</v>
       </c>
       <c r="B50">
-        <v>303.5742424242424</v>
+        <v>303.6348484848484</v>
       </c>
       <c r="C50">
-        <v>0.00778212621606782</v>
+        <v>0.007913308165858585</v>
       </c>
       <c r="D50">
-        <v>0.6403669609567747</v>
+        <v>0.6273397358176206</v>
       </c>
       <c r="E50">
-        <v>0.0001974368049687972</v>
+        <v>0.000196641468167274</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>564.2424242424242</v>
+        <v>655.1515151515152</v>
       </c>
       <c r="B51">
-        <v>303.9580808080808</v>
+        <v>303.3116161616161</v>
       </c>
       <c r="C51">
-        <v>0.007812897290911495</v>
+        <v>0.007931446904175084</v>
       </c>
       <c r="D51">
-        <v>0.6368635072890275</v>
+        <v>0.6262496556303599</v>
       </c>
       <c r="E51">
-        <v>0.0001968840946004549</v>
+        <v>0.0001969594058101108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>575.7575757575758</v>
+        <v>664.8484848484849</v>
       </c>
       <c r="B52">
-        <v>304.1500000000001</v>
+        <v>303.1499999999999</v>
       </c>
       <c r="C52">
-        <v>0.007849822580723902</v>
+        <v>0.007949585642760942</v>
       </c>
       <c r="D52">
-        <v>0.6352440374072787</v>
+        <v>0.6251602015054347</v>
       </c>
       <c r="E52">
-        <v>0.0001971870840488715</v>
+        <v>0.0001971714769441589</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>587.2727272727273</v>
+        <v>674.5454545454545</v>
       </c>
       <c r="B53">
-        <v>304.15</v>
+        <v>303.1499999999999</v>
       </c>
       <c r="C53">
-        <v>0.007884399551666664</v>
+        <v>0.007967724381616161</v>
       </c>
       <c r="D53">
-        <v>0.6339381093185525</v>
+        <v>0.6240707473805094</v>
       </c>
       <c r="E53">
-        <v>0.0001976484947784995</v>
+        <v>0.0001972769765150872</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>598.7878787878788</v>
+        <v>684.2424242424242</v>
       </c>
       <c r="B54">
-        <v>304.15</v>
+        <v>303.1499999999999</v>
       </c>
       <c r="C54">
-        <v>0.007884399551666666</v>
+        <v>0.007985863120471382</v>
       </c>
       <c r="D54">
-        <v>0.6326321812298265</v>
+        <v>0.6229812932555842</v>
       </c>
       <c r="E54">
-        <v>0.0001972413340206408</v>
+        <v>0.0001973809080562369</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>610.3030303030304</v>
+        <v>693.939393939394</v>
       </c>
       <c r="B55">
-        <v>304.1499999999998</v>
+        <v>303.15</v>
       </c>
       <c r="C55">
-        <v>0.007884399551666664</v>
+        <v>0.008004001859326601</v>
       </c>
       <c r="D55">
-        <v>0.6313262531411004</v>
+        <v>0.6218918391306589</v>
       </c>
       <c r="E55">
-        <v>0.0001968341732627822</v>
+        <v>0.000197483271567608</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>621.8181818181819</v>
+        <v>703.6363636363636</v>
       </c>
       <c r="B56">
-        <v>304.1499999999998</v>
+        <v>303.15</v>
       </c>
       <c r="C56">
-        <v>0.007884399551666664</v>
+        <v>0.008022140598181819</v>
       </c>
       <c r="D56">
-        <v>0.6300203250523743</v>
+        <v>0.6208023850057337</v>
       </c>
       <c r="E56">
-        <v>0.0001964270125049234</v>
+        <v>0.0001975840670492004</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>633.3333333333334</v>
+        <v>713.3333333333334</v>
       </c>
       <c r="B57">
-        <v>304.0388888888888</v>
+        <v>303.1499999999999</v>
       </c>
       <c r="C57">
-        <v>0.007890634742962963</v>
+        <v>0.008040279337037038</v>
       </c>
       <c r="D57">
-        <v>0.6287143969636481</v>
+        <v>0.6197129308808085</v>
       </c>
       <c r="E57">
-        <v>0.0001962465615903349</v>
+        <v>0.0001976832945010143</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>644.8484848484849</v>
+        <v>723.030303030303</v>
       </c>
       <c r="B58">
-        <v>303.6550505050504</v>
+        <v>303.0489898989899</v>
       </c>
       <c r="C58">
-        <v>0.007912174494713804</v>
+        <v>0.008055583897777777</v>
       </c>
       <c r="D58">
-        <v>0.627408468874922</v>
+        <v>0.6186234767558833</v>
       </c>
       <c r="E58">
-        <v>0.0001966217565188288</v>
+        <v>0.0001977772932984922</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>656.3636363636364</v>
+        <v>732.7272727272727</v>
       </c>
       <c r="B59">
-        <v>303.271212121212</v>
+        <v>302.7257575757575</v>
       </c>
       <c r="C59">
-        <v>0.007933714246464645</v>
+        <v>0.008064653266666666</v>
       </c>
       <c r="D59">
-        <v>0.6261134738647443</v>
+        <v>0.6179320705889394</v>
       </c>
       <c r="E59">
-        <v>0.0001969991100197488</v>
+        <v>0.0001979898415742086</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>667.8787878787879</v>
+        <v>742.4242424242425</v>
       </c>
       <c r="B60">
-        <v>303.1499999999999</v>
+        <v>302.4025252525253</v>
       </c>
       <c r="C60">
-        <v>0.007955253998653199</v>
+        <v>0.008073722635555556</v>
       </c>
       <c r="D60">
-        <v>0.6248197470913955</v>
+        <v>0.6175120483382607</v>
       </c>
       <c r="E60">
-        <v>0.0001972046140007729</v>
+        <v>0.0001982894896094995</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>679.3939393939394</v>
+        <v>752.1212121212121</v>
       </c>
       <c r="B61">
-        <v>303.1499999999999</v>
+        <v>302.15</v>
       </c>
       <c r="C61">
-        <v>0.007976793751043772</v>
+        <v>0.008082792004562288</v>
       </c>
       <c r="D61">
-        <v>0.6235260203180468</v>
+        <v>0.617092026087582</v>
       </c>
       <c r="E61">
-        <v>0.0001973291382893844</v>
+        <v>0.0001985430030260643</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>690.909090909091</v>
+        <v>761.8181818181819</v>
       </c>
       <c r="B62">
-        <v>303.15</v>
+        <v>302.15</v>
       </c>
       <c r="C62">
-        <v>0.007998333503434346</v>
+        <v>0.008091861373989897</v>
       </c>
       <c r="D62">
-        <v>0.6222322935446981</v>
+        <v>0.6166720038369032</v>
       </c>
       <c r="E62">
-        <v>0.0001974514514110034</v>
+        <v>0.0001986304905220493</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>702.4242424242425</v>
+        <v>771.5151515151515</v>
       </c>
       <c r="B63">
-        <v>303.15</v>
+        <v>302.15</v>
       </c>
       <c r="C63">
-        <v>0.008019873255824917</v>
+        <v>0.008100930743417507</v>
       </c>
       <c r="D63">
-        <v>0.6209385667713494</v>
+        <v>0.6162519815862245</v>
       </c>
       <c r="E63">
-        <v>0.0001975715533656299</v>
+        <v>0.0001987176747527944</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>713.939393939394</v>
+        <v>781.2121212121212</v>
       </c>
       <c r="B64">
-        <v>303.1499999999999</v>
+        <v>302.1095959595958</v>
       </c>
       <c r="C64">
-        <v>0.00804141300821549</v>
+        <v>0.00811113378402357</v>
       </c>
       <c r="D64">
-        <v>0.6196448399980006</v>
+        <v>0.6158319593355458</v>
       </c>
       <c r="E64">
-        <v>0.0001976894441532639</v>
+        <v>0.0001988589377503687</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>725.4545454545455</v>
+        <v>790.9090909090909</v>
       </c>
       <c r="B65">
-        <v>302.9681818181818</v>
+        <v>301.7863636363635</v>
       </c>
       <c r="C65">
-        <v>0.008057851239999999</v>
+        <v>0.008129272522878789</v>
       </c>
       <c r="D65">
-        <v>0.6183511132246519</v>
+        <v>0.6154119370848671</v>
       </c>
       <c r="E65">
-        <v>0.0001977986025562587</v>
+        <v>0.0001993810294558492</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>736.969696969697</v>
+        <v>800.6060606060606</v>
       </c>
       <c r="B66">
-        <v>302.5843434343435</v>
+        <v>301.4631313131313</v>
       </c>
       <c r="C66">
-        <v>0.008068621115555556</v>
+        <v>0.008147411261734008</v>
       </c>
       <c r="D66">
-        <v>0.6177483108542674</v>
+        <v>0.6149919148341884</v>
       </c>
       <c r="E66">
-        <v>0.0001981208960783837</v>
+        <v>0.0001999036328346631</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>748.4848484848485</v>
+        <v>810.3030303030304</v>
       </c>
       <c r="B67">
-        <v>302.2005050505051</v>
+        <v>301.1500000000002</v>
       </c>
       <c r="C67">
-        <v>0.008079390991111112</v>
+        <v>0.008164983165000004</v>
       </c>
       <c r="D67">
-        <v>0.6172495344315865</v>
+        <v>0.6145718925835096</v>
       </c>
       <c r="E67">
-        <v>0.0001984769411654832</v>
+        <v>0.0002004061141853589</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="B68">
-        <v>302.15</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C68">
-        <v>0.00809016086722222</v>
+        <v>0.008164983165000002</v>
       </c>
       <c r="D68">
-        <v>0.6167507580089054</v>
+        <v>0.6141518703328309</v>
       </c>
       <c r="E68">
-        <v>0.000198614109716834</v>
+        <v>0.0002002691488796791</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>771.5151515151515</v>
+        <v>829.6969696969697</v>
       </c>
       <c r="B69">
-        <v>302.15</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C69">
-        <v>0.008100930743417507</v>
+        <v>0.008164983165000002</v>
       </c>
       <c r="D69">
-        <v>0.6162519815862245</v>
+        <v>0.6137318480821521</v>
       </c>
       <c r="E69">
-        <v>0.0001987176747527944</v>
+        <v>0.0002001321835739993</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>783.030303030303</v>
+        <v>839.3939393939394</v>
       </c>
       <c r="B70">
-        <v>302.0489898989898</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C70">
-        <v>0.008114534797558923</v>
+        <v>0.008164983165000002</v>
       </c>
       <c r="D70">
-        <v>0.6157532051635435</v>
+        <v>0.6133118258314734</v>
       </c>
       <c r="E70">
-        <v>0.0001989567910456258</v>
+        <v>0.0001999952182683195</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>794.5454545454546</v>
+        <v>849.0909090909091</v>
       </c>
       <c r="B71">
-        <v>301.6651515151514</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C71">
-        <v>0.008136074549949496</v>
+        <v>0.008164983165000002</v>
       </c>
       <c r="D71">
-        <v>0.6152544287408626</v>
+        <v>0.6128918035807946</v>
       </c>
       <c r="E71">
-        <v>0.0001995769456728439</v>
+        <v>0.0001998582529626397</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>806.0606060606061</v>
+        <v>858.7878787878788</v>
       </c>
       <c r="B72">
-        <v>301.2813131313131</v>
+        <v>301.1500000000001</v>
       </c>
       <c r="C72">
-        <v>0.008157614302340068</v>
+        <v>0.008164983165000004</v>
       </c>
       <c r="D72">
-        <v>0.6147556523181815</v>
+        <v>0.6124717813301159</v>
       </c>
       <c r="E72">
-        <v>0.0002001978227098668</v>
+        <v>0.0001997212876569599</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>817.5757575757576</v>
+        <v>868.4848484848485</v>
       </c>
       <c r="B73">
         <v>301.1500000000001</v>
       </c>
       <c r="C73">
-        <v>0.008164983165000002</v>
+        <v>0.008164983165000004</v>
       </c>
       <c r="D73">
-        <v>0.6142568758955005</v>
+        <v>0.6120517590794372</v>
       </c>
       <c r="E73">
-        <v>0.000200303390206099</v>
+        <v>0.0001995843223512801</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>829.0909090909091</v>
+        <v>878.1818181818182</v>
       </c>
       <c r="B74">
-        <v>301.1500000000001</v>
+        <v>301.1499999999998</v>
       </c>
       <c r="C74">
-        <v>0.008164983165000002</v>
+        <v>0.008164983164999999</v>
       </c>
       <c r="D74">
-        <v>0.6137580994728196</v>
+        <v>0.6116317368287585</v>
       </c>
       <c r="E74">
-        <v>0.0002001407439056043</v>
+        <v>0.0001994473570456004</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>840.6060606060606</v>
+        <v>887.8787878787879</v>
       </c>
       <c r="B75">
-        <v>301.1500000000001</v>
+        <v>301.1499999999998</v>
       </c>
       <c r="C75">
-        <v>0.008164983165000002</v>
+        <v>0.008164983164999999</v>
       </c>
       <c r="D75">
-        <v>0.6132593230501386</v>
+        <v>0.6112117145780798</v>
       </c>
       <c r="E75">
-        <v>0.0001999780976051095</v>
+        <v>0.0001993103917399207</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>852.1212121212121</v>
+        <v>897.5757575757576</v>
       </c>
       <c r="B76">
-        <v>301.1500000000001</v>
+        <v>301.1499999999999</v>
       </c>
       <c r="C76">
-        <v>0.008164983165000002</v>
+        <v>0.008164983164999999</v>
       </c>
       <c r="D76">
-        <v>0.6127605466274576</v>
+        <v>0.610791692327401</v>
       </c>
       <c r="E76">
-        <v>0.0001998154513046148</v>
+        <v>0.0001991734264342408</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>863.6363636363636</v>
+        <v>907.2727272727273</v>
       </c>
       <c r="B77">
-        <v>301.1500000000001</v>
+        <v>301.15</v>
       </c>
       <c r="C77">
-        <v>0.008164983165000004</v>
+        <v>0.008171785192070709</v>
       </c>
       <c r="D77">
-        <v>0.6122617702047766</v>
+        <v>0.6103716700767223</v>
       </c>
       <c r="E77">
-        <v>0.00019965280500412</v>
+        <v>0.0001992022730315736</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>875.1515151515152</v>
+        <v>916.969696969697</v>
       </c>
       <c r="B78">
-        <v>301.1499999999998</v>
+        <v>301.15</v>
       </c>
       <c r="C78">
-        <v>0.008164983164999999</v>
+        <v>0.008180854561498318</v>
       </c>
       <c r="D78">
-        <v>0.6117629937820956</v>
+        <v>0.6099516478260436</v>
       </c>
       <c r="E78">
-        <v>0.0001994901587036254</v>
+        <v>0.000199286124025013</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>886.6666666666667</v>
+        <v>926.6666666666667</v>
       </c>
       <c r="B79">
-        <v>301.1499999999998</v>
+        <v>301.15</v>
       </c>
       <c r="C79">
-        <v>0.008164983164999999</v>
+        <v>0.008189923930925928</v>
       </c>
       <c r="D79">
-        <v>0.6112642173594146</v>
+        <v>0.6095316255753649</v>
       </c>
       <c r="E79">
-        <v>0.0001993275124031306</v>
+        <v>0.0001993696707461886</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>898.1818181818182</v>
+        <v>936.3636363636364</v>
       </c>
       <c r="B80">
-        <v>301.1499999999999</v>
+        <v>300.9378787878787</v>
       </c>
       <c r="C80">
-        <v>0.008164983164999999</v>
+        <v>0.008198993300353537</v>
       </c>
       <c r="D80">
-        <v>0.6107654409367337</v>
+        <v>0.6091116033246862</v>
       </c>
       <c r="E80">
-        <v>0.0001991648661026358</v>
+        <v>0.0001995935009930819</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>909.6969696969697</v>
+        <v>946.0606060606061</v>
       </c>
       <c r="B81">
-        <v>301.15</v>
+        <v>300.6146464646464</v>
       </c>
       <c r="C81">
-        <v>0.008174052534427613</v>
+        <v>0.008208062669781146</v>
       </c>
       <c r="D81">
-        <v>0.6102666645140526</v>
+        <v>0.6078798379940454</v>
       </c>
       <c r="E81">
-        <v>0.0001992232643054582</v>
+        <v>0.0001996246251397525</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>921.2121212121212</v>
+        <v>955.7575757575758</v>
       </c>
       <c r="B82">
-        <v>301.15</v>
+        <v>300.2914141414141</v>
       </c>
       <c r="C82">
-        <v>0.008184822410622898</v>
+        <v>0.008217132039208753</v>
       </c>
       <c r="D82">
-        <v>0.6097678880913717</v>
+        <v>0.6066060059905132</v>
       </c>
       <c r="E82">
-        <v>0.0001993227131552786</v>
+        <v>0.0001996410767939566</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>932.7272727272727</v>
+        <v>965.4545454545455</v>
       </c>
       <c r="B83">
-        <v>301.0590909090909</v>
+        <v>300.1500000000001</v>
       </c>
       <c r="C83">
-        <v>0.008195592286818184</v>
+        <v>0.008221099888333335</v>
       </c>
       <c r="D83">
-        <v>0.6092691116686907</v>
+        <v>0.6053321739869808</v>
       </c>
       <c r="E83">
-        <v>0.0001994819511731925</v>
+        <v>0.0001994119508609325</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>944.2424242424242</v>
+        <v>975.1515151515151</v>
       </c>
       <c r="B84">
-        <v>300.6752525252525</v>
+        <v>300.15</v>
       </c>
       <c r="C84">
-        <v>0.008206362163013469</v>
+        <v>0.008221099888333335</v>
       </c>
       <c r="D84">
-        <v>0.6081186814947077</v>
+        <v>0.6040583419834484</v>
       </c>
       <c r="E84">
-        <v>0.0001996214414979276</v>
+        <v>0.0001989923179125955</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>955.7575757575758</v>
+        <v>984.8484848484849</v>
       </c>
       <c r="B85">
-        <v>300.2914141414141</v>
+        <v>300.15</v>
       </c>
       <c r="C85">
-        <v>0.008217132039208753</v>
+        <v>0.008221099888333335</v>
       </c>
       <c r="D85">
-        <v>0.6066060059905132</v>
+        <v>0.6027845099799162</v>
       </c>
       <c r="E85">
-        <v>0.0001996410767939566</v>
+        <v>0.0001985726849642584</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>967.2727272727273</v>
+        <v>994.5454545454546</v>
       </c>
       <c r="B86">
         <v>300.1500000000001</v>
       </c>
       <c r="C86">
-        <v>0.008221099888333335</v>
+        <v>0.008221099888333337</v>
       </c>
       <c r="D86">
-        <v>0.6050933304863185</v>
+        <v>0.6015106779763838</v>
       </c>
       <c r="E86">
-        <v>0.0001993332696831193</v>
+        <v>0.0001981530520159212</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>978.7878787878789</v>
+        <v>1004.242424242424</v>
       </c>
       <c r="B87">
-        <v>300.15</v>
+        <v>300.1500000000001</v>
       </c>
       <c r="C87">
-        <v>0.008221099888333335</v>
+        <v>0.008221099888333337</v>
       </c>
       <c r="D87">
-        <v>0.6035806549821239</v>
+        <v>0.6002368459728515</v>
       </c>
       <c r="E87">
-        <v>0.0001988349555569691</v>
+        <v>0.0001977334190675841</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>990.3030303030304</v>
+        <v>1013.939393939394</v>
       </c>
       <c r="B88">
         <v>300.1500000000001</v>
@@ -1856,41 +1856,41 @@
         <v>0.008221099888333337</v>
       </c>
       <c r="D88">
-        <v>0.6020679794779292</v>
+        <v>0.6</v>
       </c>
       <c r="E88">
-        <v>0.0001983366414308187</v>
+        <v>0.0001976553959266881</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1001.818181818182</v>
+        <v>1023.636363636364</v>
       </c>
       <c r="B89">
-        <v>300.1500000000001</v>
+        <v>300.15</v>
       </c>
       <c r="C89">
         <v>0.008221099888333337</v>
       </c>
       <c r="D89">
-        <v>0.6005553039737346</v>
+        <v>0.6</v>
       </c>
       <c r="E89">
-        <v>0.0001978383273046684</v>
+        <v>0.0001976553959266882</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>1013.333333333333</v>
+        <v>1033.333333333333</v>
       </c>
       <c r="B90">
-        <v>300.1500000000001</v>
+        <v>300.15</v>
       </c>
       <c r="C90">
         <v>0.008221099888333337</v>
       </c>
       <c r="D90">
-        <v>0.6</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="E90">
         <v>0.0001976553959266881</v>
@@ -1898,58 +1898,58 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>1024.848484848485</v>
+        <v>1043.030303030303</v>
       </c>
       <c r="B91">
         <v>300.15</v>
       </c>
       <c r="C91">
-        <v>0.008221099888333337</v>
+        <v>0.008221099888333335</v>
       </c>
       <c r="D91">
-        <v>0.6</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="E91">
-        <v>0.0001976553959266882</v>
+        <v>0.0001976553959266881</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1036.363636363636</v>
+        <v>1052.727272727273</v>
       </c>
       <c r="B92">
-        <v>300.15</v>
+        <v>300.1499999999998</v>
       </c>
       <c r="C92">
-        <v>0.008221099888333337</v>
+        <v>0.008221099888333328</v>
       </c>
       <c r="D92">
         <v>0.5999999999999999</v>
       </c>
       <c r="E92">
-        <v>0.0001976553959266881</v>
+        <v>0.000197655395926688</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>1047.878787878788</v>
+        <v>1062.424242424242</v>
       </c>
       <c r="B93">
-        <v>300.15</v>
+        <v>300.1499999999998</v>
       </c>
       <c r="C93">
-        <v>0.008221099888333335</v>
+        <v>0.008221099888333328</v>
       </c>
       <c r="D93">
         <v>0.5999999999999999</v>
       </c>
       <c r="E93">
-        <v>0.0001976553959266881</v>
+        <v>0.000197655395926688</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>1059.393939393939</v>
+        <v>1072.121212121212</v>
       </c>
       <c r="B94">
         <v>300.1499999999998</v>
@@ -1958,112 +1958,112 @@
         <v>0.008221099888333328</v>
       </c>
       <c r="D94">
-        <v>0.5999999999999999</v>
+        <v>0.6000000000000002</v>
       </c>
       <c r="E94">
-        <v>0.000197655395926688</v>
+        <v>0.0001976553959266881</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>1070.909090909091</v>
+        <v>1081.818181818182</v>
       </c>
       <c r="B95">
-        <v>300.1499999999998</v>
+        <v>300.15</v>
       </c>
       <c r="C95">
-        <v>0.008221099888333328</v>
+        <v>0.008222800395</v>
       </c>
       <c r="D95">
         <v>0.6000000000000002</v>
       </c>
       <c r="E95">
-        <v>0.0001976553959266881</v>
+        <v>0.0001976962802758679</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>1082.424242424242</v>
+        <v>1091.515151515152</v>
       </c>
       <c r="B96">
         <v>300.15</v>
       </c>
       <c r="C96">
-        <v>0.008223367230555556</v>
+        <v>0.008231869763888889</v>
       </c>
       <c r="D96">
         <v>0.6000000000000002</v>
       </c>
       <c r="E96">
-        <v>0.0001977099083922611</v>
+        <v>0.0001979143301381597</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>1093.939393939394</v>
+        <v>1101.212121212121</v>
       </c>
       <c r="B97">
         <v>300.15</v>
       </c>
       <c r="C97">
-        <v>0.00823413710611111</v>
+        <v>0.008240939132777778</v>
       </c>
       <c r="D97">
         <v>0.6000000000000002</v>
       </c>
       <c r="E97">
-        <v>0.0001979688426037326</v>
+        <v>0.0001981323800004515</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>1105.454545454545</v>
+        <v>1110.909090909091</v>
       </c>
       <c r="B98">
         <v>300.15</v>
       </c>
       <c r="C98">
-        <v>0.008244906981666666</v>
+        <v>0.008250008501717169</v>
       </c>
       <c r="D98">
         <v>0.6000000000000002</v>
       </c>
       <c r="E98">
-        <v>0.0001982277768152042</v>
+        <v>0.0001983504298639576</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>1116.969696969697</v>
+        <v>1120.606060606061</v>
       </c>
       <c r="B99">
         <v>300.15</v>
       </c>
       <c r="C99">
-        <v>0.008255676857609426</v>
+        <v>0.00825907787114478</v>
       </c>
       <c r="D99">
         <v>0.6000000000000002</v>
       </c>
       <c r="E99">
-        <v>0.0001984867110359851</v>
+        <v>0.0001985684797392016</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>1128.484848484848</v>
+        <v>1130.30303030303</v>
       </c>
       <c r="B100">
         <v>300.15</v>
       </c>
       <c r="C100">
-        <v>0.008266446733804712</v>
+        <v>0.00826814724057239</v>
       </c>
       <c r="D100">
         <v>0.6000000000000002</v>
       </c>
       <c r="E100">
-        <v>0.0001987456452628374</v>
+        <v>0.0001987865296144456</v>
       </c>
     </row>
     <row r="101" spans="1:5">
